--- a/data/trans_dic/P28C_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28C_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha pesado más respecto al último mes</t>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,48%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>33,64%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,14%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,22%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,82; 37,34</t>
+          <t>21,98; 37,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,41; 27,37</t>
+          <t>13,24; 35,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,85; 25,37</t>
+          <t>6,54; 16,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,54; 37,61</t>
+          <t>5,76; 17,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 20,73</t>
+          <t>30,19; 44,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 21,12</t>
+          <t>14,39; 25,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,09; 35,56</t>
+          <t>16,29; 28,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,41; 22,39</t>
+          <t>14,17; 26,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,0; 20,97</t>
+          <t>28,29; 38,92</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 27,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 20,5</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 19,89</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>28,66%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,67; 31,79</t>
+          <t>17,02; 32,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,47; 23,06</t>
+          <t>9,49; 21,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 16,06</t>
+          <t>7,94; 19,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,84; 37,44</t>
+          <t>7,35; 20,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,89; 26,74</t>
+          <t>25,14; 39,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 22,64</t>
+          <t>11,94; 24,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,16; 32,67</t>
+          <t>10,9; 23,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,0; 23,13</t>
+          <t>14,94; 28,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,7; 18,13</t>
+          <t>23,84; 34,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 21,33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10,68; 19,02</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 21,66</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>36,65%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,02%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 54,61</t>
+          <t>19,07; 77,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 43,24</t>
+          <t>3,65; 65,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 21,74</t>
+          <t>2,23; 27,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,89; 40,88</t>
+          <t>1,79; 21,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 19,86</t>
+          <t>14,6; 44,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,26; 33,51</t>
+          <t>2,26; 21,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,8; 44,18</t>
+          <t>2,44; 22,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 26,76</t>
+          <t>13,76; 42,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,07; 24,36</t>
+          <t>22,39; 58,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 43,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 19,7</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,08; 27,83</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15,84%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,7; 33,19</t>
+          <t>23,82; 36,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 23,28</t>
+          <t>13,47; 28,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 19,09</t>
+          <t>8,01; 15,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,21; 35,49</t>
+          <t>7,25; 14,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 21,09</t>
+          <t>30,05; 39,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 20,52</t>
+          <t>13,61; 21,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,38; 33,26</t>
+          <t>14,53; 22,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 20,5</t>
+          <t>16,92; 25,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 18,38</t>
+          <t>28,32; 36,18</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15,18; 23,31</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 17,79</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12,91; 18,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,48%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>125314</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>76492</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39911</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>51402</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>189775</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>80435</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>86988</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>107646</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>315090</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>156927</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>126899</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>159048</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>94015; 160704</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48483; 131595</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24777; 62685</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28954; 85581</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>153604; 224578</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>60320; 104903</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66392; 115836</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>76830; 145460</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>264931; 364543</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>123741; 215151</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>98586; 161168</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>114470; 207861</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>85233</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49133</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>40269</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50440</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>136739</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>58459</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54707</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>82598</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>221972</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>107592</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>94976</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>133038</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>59946; 112951</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30205; 69325</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25182; 61275</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30169; 82103</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>106168; 168677</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>40118; 81437</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36519; 77556</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>59515; 113200</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>184664; 270326</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>80894; 139593</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>69665; 124022</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>99578; 175186</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>44084</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22380</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9176</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28385</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6654</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8013</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28938</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>72468</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29035</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16004</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>38114</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18415; 74502</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2905; 52061</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1906; 23517</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2136; 25257</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14768; 45013</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1843; 17606</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1966; 18108</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15323; 47364</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>44275; 116361</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9230; 69804</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6193; 32719</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20962; 64226</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>254630</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>148006</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>88171</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111018</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>354899</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>145548</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>149708</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>219182</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>609530</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>293554</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>237879</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>330200</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>208804; 320431</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>102915; 215141</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>62589; 117599</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>74865; 150505</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>310249; 408108</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>113918; 176388</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>119576; 182808</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>178009; 270207</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>540565; 690538</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>243034; 373258</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>197718; 285393</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>269202; 390669</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
